--- a/scripts/links.xlsx
+++ b/scripts/links.xlsx
@@ -8,66 +8,46 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/CTI-WebScraping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1807A47C-9A05-C145-82A3-F4E471CD9BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74C7D74-EF62-354A-8550-E79217D5B493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14500" xr2:uid="{6FBE3765-B5B2-5747-9B54-9733C751F4E0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
-    <t>URL</t>
+    <t>Site</t>
   </si>
   <si>
-    <t>www.reddit.com</t>
+    <t>www.google.com</t>
   </si>
   <si>
-    <t>www.apple.com</t>
+    <t>Regular Expression</t>
   </si>
   <si>
-    <t>www.wikipedia.org</t>
+    <t>.cnss.ma</t>
   </si>
   <si>
-    <t>www.linkedin.com</t>
+    <t>www.exploit-db.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="-webkit-standard"/>
     </font>
     <font>
       <u/>
@@ -97,12 +77,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -417,97 +396,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07902883-522B-CB42-99B5-F4035B1383D8}">
-  <dimension ref="A1:A13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{A93B68A1-D61B-274E-AA12-1CE1709868F0}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{45024218-8E06-E349-8438-C57B5DB3E99A}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{87A26598-B034-1848-908F-A752B793663C}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{B16E35BE-E4EF-9E4C-BDF3-61CC775F1FC6}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{3E3B8284-EBD6-AC4D-B16F-1A037B250880}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{3B3D8200-C315-6443-BCF0-6C0D810DDF2C}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{CB67D544-7F4F-9148-8A29-5379CE64B0D1}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{6C3D3A33-280B-0A4B-9779-8ACD5CE09436}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{34668EF7-C2E6-B84E-B7B6-49680F2BF8DB}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{074A1A08-4AA7-694A-95BA-6208B9074EC0}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{3A24B581-9E07-2242-B9C0-8EF4E9FC511D}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{E48EB27B-8DA5-7841-9D84-2F704EEB7C63}"/>
+    <hyperlink ref="C1" r:id="rId1" xr:uid="{06EB61FD-3BF6-E74E-AE28-D2502E78E56A}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{C58041B5-2799-6544-BCED-16A037A9117B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
